--- a/Optimization/misc/TX2_JP42_table.xlsx
+++ b/Optimization/misc/TX2_JP42_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8160" tabRatio="800"/>
+    <workbookView windowWidth="14340" windowHeight="12150" tabRatio="800" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ssd_mobilenet_v1_coco" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>INT8</t>
+  </si>
+  <si>
+    <t>exported</t>
   </si>
   <si>
     <t>GPU without TensorRT</t>
@@ -173,10 +176,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -203,30 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,10 +213,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,8 +245,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,21 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,6 +315,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,31 +344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +425,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,19 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,49 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,6 +1130,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,8 +1161,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,8 +1170,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,21 +1187,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,16 +1217,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1233,152 +1236,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,12 +1514,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1544,9 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1583,39 +1577,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1647,15 +1617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2048,49 +2009,49 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.72" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.71666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
-      <c r="A1" s="80" t="s">
+    <row r="1" ht="29.25" spans="1:6">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="110" t="s">
+      <c r="D1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="72">
         <v>3</v>
       </c>
       <c r="D2" s="9">
@@ -2099,45 +2060,45 @@
       <c r="E2" s="31">
         <v>59.4728</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="55">
         <f>1000/E2</f>
         <v>16.8144092761733</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="11">
         <v>3</v>
       </c>
       <c r="E3" s="33">
         <v>59.4049</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <f>1000/E3</f>
         <v>16.8336282023873</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="13">
         <v>5</v>
       </c>
       <c r="E4" s="35">
         <v>59.8939</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="97">
         <f t="shared" ref="F4:F29" si="0">1000/E4</f>
         <v>16.6961910979248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="87">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="76">
         <v>20</v>
       </c>
       <c r="D5" s="15">
@@ -2146,45 +2107,45 @@
       <c r="E5" s="36">
         <v>58.7905</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <f t="shared" si="0"/>
         <v>17.0095508628095</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="11">
         <v>3</v>
       </c>
       <c r="E6" s="33">
         <v>60.5415</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="55">
         <f t="shared" si="0"/>
         <v>16.5175953684663</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="13">
         <v>5</v>
       </c>
       <c r="E7" s="35">
         <v>58.9438</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="97">
         <f t="shared" si="0"/>
         <v>16.9653127216094</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="87">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76">
         <v>50</v>
       </c>
       <c r="D8" s="15">
@@ -2193,47 +2154,47 @@
       <c r="E8" s="36">
         <v>45.6432</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="54">
         <f t="shared" si="0"/>
         <v>21.9090686016756</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="11">
         <v>3</v>
       </c>
       <c r="E9" s="33">
         <v>45.7303</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="55">
         <f t="shared" si="0"/>
         <v>21.8673395975972</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="12">
         <v>5</v>
       </c>
       <c r="E10" s="34">
         <v>45.458</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>21.9983281270623</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="84"/>
-      <c r="B11" s="88" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="76">
         <v>3</v>
       </c>
       <c r="D11" s="9">
@@ -2242,45 +2203,45 @@
       <c r="E11" s="31">
         <v>56.8019</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="98">
         <f t="shared" si="0"/>
         <v>17.605044901667</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="84"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="85"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
       <c r="E12" s="33">
         <v>56.8949</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="55">
         <f t="shared" si="0"/>
         <v>17.5762678201385</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="84"/>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="73"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="89"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="13">
         <v>5</v>
       </c>
       <c r="E13" s="35">
         <v>57.8097</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="56">
         <f t="shared" si="0"/>
         <v>17.2981350880562</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="84"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="83">
+      <c r="C14" s="72">
         <v>20</v>
       </c>
       <c r="D14" s="15">
@@ -2289,45 +2250,45 @@
       <c r="E14" s="36">
         <v>57.6155</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="98">
         <f t="shared" si="0"/>
         <v>17.3564405411738</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="84"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="85"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="11">
         <v>3</v>
       </c>
       <c r="E15" s="33">
         <v>56.5795</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="55">
         <f t="shared" si="0"/>
         <v>17.6742459724812</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="84"/>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="73"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="86"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="E16" s="35">
         <v>58.0271</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="97">
         <f t="shared" si="0"/>
         <v>17.23332718678</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="84"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="88">
+      <c r="C17" s="77">
         <v>50</v>
       </c>
       <c r="D17" s="9">
@@ -2336,13 +2297,13 @@
       <c r="E17" s="36">
         <v>43.5092</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="0"/>
         <v>22.983644838333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="84"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
@@ -2351,32 +2312,32 @@
       <c r="E18" s="33">
         <v>43.9931</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="55">
         <f t="shared" si="0"/>
         <v>22.7308373358549</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="84"/>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="73"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="83"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="13">
         <v>5</v>
       </c>
       <c r="E19" s="35">
         <v>44.1939</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="97">
         <f t="shared" si="0"/>
         <v>22.6275571968077</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="84"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="76">
         <v>3</v>
       </c>
       <c r="D20" s="15">
@@ -2385,45 +2346,45 @@
       <c r="E20" s="36">
         <v>66.1614</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="54">
         <f t="shared" si="0"/>
         <v>15.1145531986929</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="84"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="85"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="11">
         <v>3</v>
       </c>
       <c r="E21" s="33">
         <v>65.682</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="55">
         <f t="shared" si="0"/>
         <v>15.2248713498371</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="84"/>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="73"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="89"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="13">
         <v>5</v>
       </c>
       <c r="E22" s="35">
         <v>66.1543</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="56">
         <f t="shared" si="0"/>
         <v>15.1161753657737</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="84"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="83">
+      <c r="C23" s="72">
         <v>20</v>
       </c>
       <c r="D23" s="15">
@@ -2432,45 +2393,48 @@
       <c r="E23" s="36">
         <v>63.711</v>
       </c>
-      <c r="F23" s="112">
+      <c r="F23" s="98">
         <f t="shared" si="0"/>
         <v>15.6958766931927</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="73"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="11">
         <v>3</v>
       </c>
       <c r="E24" s="33">
         <v>64.6741</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="55">
         <f t="shared" si="0"/>
         <v>15.4621401766704</v>
       </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="84"/>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="73"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="86"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="12">
         <v>5</v>
       </c>
       <c r="E25" s="34">
         <v>64.8896</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="56">
         <f t="shared" si="0"/>
         <v>15.4107900187395</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="84"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="88">
+      <c r="C26" s="77">
         <v>50</v>
       </c>
       <c r="D26" s="9">
@@ -2479,13 +2443,13 @@
       <c r="E26" s="31">
         <v>53.0618</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="98">
         <f t="shared" si="0"/>
         <v>18.8459494400868</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="84"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="11">
@@ -2494,87 +2458,87 @@
       <c r="E27" s="31">
         <v>52.6523</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="55">
         <f t="shared" si="0"/>
         <v>18.9925226438351</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="84"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="73"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="E28" s="34">
         <v>52.1051</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="56">
         <f t="shared" si="0"/>
         <v>19.191979288016</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="84"/>
-      <c r="B29" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="76">
+      <c r="A29" s="73"/>
+      <c r="B29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="38">
         <v>163.6326</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="99">
         <f t="shared" si="0"/>
         <v>6.11125166989952</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="114"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A31" s="84"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="115"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="100"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A31" s="73"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="101"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="84"/>
-      <c r="B32" s="91" t="s">
-        <v>11</v>
+      <c r="A32" s="73"/>
+      <c r="B32" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="76">
+      <c r="E32" s="38">
         <v>152.126</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="100">
         <f>1000/E32</f>
         <v>6.57349828431695</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="84"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="114"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="93"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="115"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="100"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="79"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2620,22 +2584,22 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F2:F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.72" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.71666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2648,18 +2612,18 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="104" t="s">
+      <c r="F1" s="94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9">
@@ -2668,141 +2632,141 @@
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="81">
         <v>59.2225</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="82">
         <f>1000/E2</f>
         <v>16.8854742707586</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="83">
         <v>57.1393</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="82">
         <f t="shared" ref="F3:F29" si="0">1000/E3</f>
         <v>17.5010894428178</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="45"/>
-      <c r="B4" s="105"/>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
         <v>5</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="89">
         <v>58.2098</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="87">
         <f t="shared" si="0"/>
         <v>17.1792378602916</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="9">
         <v>20</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="81">
         <v>58.3981</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="88">
         <f t="shared" si="0"/>
         <v>17.1238447826214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="83">
         <v>58.2398</v>
       </c>
-      <c r="F6" s="96">
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>17.1703886345764</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="45"/>
-      <c r="B7" s="105"/>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="10"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="89">
         <v>57.9099</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="85">
         <f t="shared" si="0"/>
         <v>17.2682045729659</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="9">
         <v>50</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="81">
         <v>41.0772</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>24.3444051688041</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="83">
         <v>41.41</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>24.1487563390485</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="45"/>
-      <c r="B10" s="106"/>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="89">
         <v>41.0804</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>24.3425088363307</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="9">
@@ -2811,141 +2775,141 @@
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="81">
         <v>57.4228</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
         <v>17.4146854559513</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
         <v>3</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="83">
         <v>56.7766</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="82">
         <f t="shared" si="0"/>
         <v>17.6128898172839</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="45"/>
-      <c r="B13" s="105"/>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="10"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12">
         <v>5</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="89">
         <v>57.2861</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="87">
         <f t="shared" si="0"/>
         <v>17.4562415664533</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="45"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="9">
         <v>20</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="81">
         <v>56.7828</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="88">
         <f t="shared" si="0"/>
         <v>17.6109667011842</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="83">
         <v>56.591</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="82">
         <f t="shared" si="0"/>
         <v>17.6706543443304</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="45"/>
-      <c r="B16" s="105"/>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="89">
         <v>56.6373</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="85">
         <f t="shared" si="0"/>
         <v>17.6562088941387</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="45"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="9">
         <v>50</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="81">
         <v>40.0526</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="82">
         <f t="shared" si="0"/>
         <v>24.9671681738514</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="83">
         <v>39.7382</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="82">
         <f t="shared" si="0"/>
         <v>25.1647029810107</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="45"/>
-      <c r="B19" s="106"/>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="10"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12">
         <v>5</v>
       </c>
-      <c r="E19" s="103">
+      <c r="E19" s="89">
         <v>40.1146</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="87">
         <f t="shared" si="0"/>
         <v>24.9285796193904</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45"/>
-      <c r="B20" s="107" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="93" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9">
@@ -2954,199 +2918,202 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="81">
         <v>62.8586</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="88">
         <f t="shared" si="0"/>
         <v>15.9087221159873</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="45"/>
-      <c r="B21" s="105"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
         <v>3</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="83">
         <v>61.105</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="82">
         <f t="shared" si="0"/>
         <v>16.3652728909255</v>
       </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="45"/>
-      <c r="B22" s="105"/>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12">
         <v>5</v>
       </c>
-      <c r="E22" s="103">
+      <c r="E22" s="89">
         <v>62.383</v>
       </c>
-      <c r="F22" s="99">
+      <c r="F22" s="85">
         <f t="shared" si="0"/>
         <v>16.0300081753042</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="45"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="9">
         <v>20</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="81">
         <v>62.4394</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="82">
         <f t="shared" si="0"/>
         <v>16.0155286565854</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="45"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="83">
         <v>61.8099</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="82">
         <f t="shared" si="0"/>
         <v>16.1786380498917</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="45"/>
-      <c r="B25" s="105"/>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="89">
         <v>63.4769</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F25" s="85">
         <f t="shared" si="0"/>
         <v>15.7537623923033</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="45"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="9">
         <v>50</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="81">
         <v>46.1226</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="82">
         <f t="shared" si="0"/>
         <v>21.6813449371891</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="45"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="83">
         <v>46.8354</v>
       </c>
-      <c r="F27" s="96">
+      <c r="F27" s="82">
         <f t="shared" si="0"/>
         <v>21.3513709715301</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="45"/>
-      <c r="B28" s="106"/>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="10"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12">
         <v>5</v>
       </c>
-      <c r="E28" s="103">
+      <c r="E28" s="89">
         <v>47.3872</v>
       </c>
-      <c r="F28" s="99">
+      <c r="F28" s="85">
         <f t="shared" si="0"/>
         <v>21.1027450450755</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="45"/>
-      <c r="B29" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="76">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="38">
         <v>172.2686</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="38">
         <f t="shared" si="0"/>
         <v>5.80488841263004</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="45"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="45"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" ht="15" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="76">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="38">
         <v>112.1108</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="38">
         <f>1000/E32</f>
         <v>8.91974725004192</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="55"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3193,533 +3160,536 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F2:F34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.72" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.71666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
-      <c r="A1" s="80" t="s">
+    <row r="1" ht="29.25" spans="1:6">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="94" t="s">
+      <c r="D1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="72">
         <v>3</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="96">
+      <c r="E2" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="82">
         <f>1000/E2</f>
         <v>14.7224667787537</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="11">
         <v>3</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="96">
+      <c r="E3" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="82">
         <f t="shared" ref="F3:F29" si="0">1000/E3</f>
         <v>14.7231170605591</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="84">
         <v>67.2079</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="85">
         <f t="shared" si="0"/>
         <v>14.8792031889108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="87">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="76">
         <v>20</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="96">
+      <c r="E5" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>14.6497393811364</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="96">
+      <c r="E6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>14.7312938348062</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="13">
         <v>5</v>
       </c>
-      <c r="E7" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="101">
+      <c r="E7" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="87">
         <f t="shared" si="0"/>
         <v>14.7908645704067</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="87">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="76">
         <v>50</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="86">
         <v>52.0945</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="88">
         <f t="shared" si="0"/>
         <v>19.1958844023841</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="96">
+      <c r="E9" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>19.213587849327</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="84"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="87">
+        <f t="shared" si="0"/>
+        <v>19.2473515644247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="73"/>
+      <c r="B11" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="76">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="88">
+        <f t="shared" si="0"/>
+        <v>15.4586743259245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="73"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="82">
+        <f t="shared" si="0"/>
+        <v>15.554591170903</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="73"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="87">
+        <f t="shared" si="0"/>
+        <v>15.4515085307779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="73"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="72">
         <v>20</v>
       </c>
-      <c r="F10" s="101">
-        <f t="shared" si="0"/>
-        <v>19.2473515644247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="84"/>
-      <c r="B11" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="87">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="102">
-        <f t="shared" si="0"/>
-        <v>15.4586743259245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="84"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="11">
-        <v>3</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="96">
-        <f t="shared" si="0"/>
-        <v>15.554591170903</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="84"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="101">
-        <f t="shared" si="0"/>
-        <v>15.4515085307779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="84"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="83">
-        <v>20</v>
-      </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="102">
+      <c r="E14" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="88">
         <f t="shared" si="0"/>
         <v>15.4843344987876</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="84"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="85"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="96">
+      <c r="E15" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="82">
         <f t="shared" si="0"/>
         <v>15.4609926884966</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="84"/>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="73"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="86"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="12">
         <v>5</v>
       </c>
-      <c r="E16" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="101">
+      <c r="E16" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="87">
         <f t="shared" si="0"/>
         <v>15.7197359713146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="84"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="88">
+      <c r="C17" s="77">
         <v>50</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="102">
+      <c r="E17" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="88">
         <f t="shared" si="0"/>
         <v>20.597025377595</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="84"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="96">
+      <c r="E18" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="82">
         <f t="shared" si="0"/>
         <v>20.6472926237547</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="84"/>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="73"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="83"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="12">
         <v>5</v>
       </c>
-      <c r="E19" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="99">
+      <c r="E19" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="85">
         <f t="shared" si="0"/>
         <v>20.6789734130439</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="84"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="76">
         <v>3</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="96">
+      <c r="E20" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="82">
         <f t="shared" si="0"/>
         <v>8.60223933494367</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="11">
         <v>3</v>
       </c>
-      <c r="E21" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="96">
+      <c r="E21" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="82">
         <f t="shared" si="0"/>
         <v>8.70704704852873</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="89"/>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="13">
         <v>5</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="101">
+      <c r="E22" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="87">
         <f t="shared" si="0"/>
         <v>8.57188900432366</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="83">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="72">
         <v>20</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="102">
+      <c r="E23" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="88">
         <f t="shared" si="0"/>
         <v>8.68733499493094</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="11">
         <v>3</v>
       </c>
-      <c r="E24" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="96">
+      <c r="E24" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="82">
         <f t="shared" si="0"/>
         <v>8.65920820200201</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E25" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="99">
+      <c r="E25" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="85">
         <f t="shared" si="0"/>
         <v>8.69109501713449</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="87">
+    <row r="26" spans="1:8">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="76">
         <v>50</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="96">
+      <c r="E26" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="82">
         <f t="shared" si="0"/>
         <v>9.84986830726073</v>
       </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="83"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="96">
+      <c r="E27" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="82">
         <f t="shared" si="0"/>
         <v>9.86828796059001</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="84"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="73"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="12">
         <v>5</v>
       </c>
-      <c r="E28" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="99">
+      <c r="E28" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="85">
         <f t="shared" si="0"/>
         <v>9.93221264867281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="84"/>
-      <c r="B29" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="76">
+      <c r="A29" s="73"/>
+      <c r="B29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="38">
         <v>207.4129</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="38">
         <f t="shared" si="0"/>
         <v>4.82130089304956</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="84"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="84"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" ht="15" spans="1:6">
+      <c r="A31" s="73"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="84"/>
-      <c r="B32" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="76">
+      <c r="A32" s="73"/>
+      <c r="B32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="38">
         <v>194.6206</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="38">
         <f>1000/E32</f>
         <v>5.13820222525262</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="84"/>
-      <c r="B33" s="91"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="93"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="79"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3768,20 +3738,20 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.42666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.425" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3802,8 +3772,8 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="44" t="s">
-        <v>39</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -3823,7 +3793,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="8"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -3837,8 +3807,8 @@
         <v>15.769512800902</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="45"/>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
@@ -3853,7 +3823,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9">
         <v>20</v>
@@ -3870,7 +3840,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -3884,8 +3854,8 @@
         <v>15.5965606464462</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="45"/>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
@@ -3900,7 +3870,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="45"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9">
         <v>50</v>
@@ -3915,10 +3885,10 @@
         <f t="shared" si="0"/>
         <v>20.15438257049</v>
       </c>
-      <c r="J8" s="75"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
@@ -3932,8 +3902,8 @@
         <v>20.3635297327898</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="45"/>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
@@ -3948,7 +3918,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -3958,17 +3928,17 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="66">
         <v>63.4079</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="0"/>
         <v>15.7709055180821</v>
       </c>
-      <c r="G11" s="75"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
@@ -3982,8 +3952,8 @@
         <v>15.3182285387789</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="45"/>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12">
@@ -3998,7 +3968,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="45"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
         <v>20</v>
@@ -4013,10 +3983,10 @@
         <f t="shared" si="0"/>
         <v>15.3361296209676</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
@@ -4030,8 +4000,8 @@
         <v>15.660554352303</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="45"/>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12">
@@ -4046,7 +4016,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="45"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9">
         <v>50</v>
@@ -4063,7 +4033,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -4077,8 +4047,8 @@
         <v>20.225105423362</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="45"/>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12">
@@ -4093,7 +4063,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -4112,7 +4082,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -4126,8 +4096,8 @@
         <v>12.9882612095188</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="45"/>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12">
@@ -4141,8 +4111,8 @@
         <v>13.1662275729771</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9">
         <v>20</v>
@@ -4157,9 +4127,12 @@
         <f t="shared" si="0"/>
         <v>12.8999134415808</v>
       </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="45"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
@@ -4173,8 +4146,8 @@
         <v>13.6014635174745</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="45"/>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12">
@@ -4189,7 +4162,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="45"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9">
         <v>50</v>
@@ -4206,7 +4179,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="45"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -4220,8 +4193,8 @@
         <v>16.7558075629013</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="45"/>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="10"/>
       <c r="B28" s="16"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12">
@@ -4236,66 +4209,66 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="45"/>
-      <c r="B29" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="76">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="38">
         <v>164.6282</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="38">
         <f t="shared" si="0"/>
         <v>6.07429346855521</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="45"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="45"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" ht="15" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="76">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="38">
         <v>194.6206</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="38">
         <f>1000/E32</f>
         <v>5.13820222525262</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="70"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="55"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -4366,21 +4339,21 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.57333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.4266666666667"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.575" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4400,9 +4373,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="44" t="s">
-        <v>40</v>
+    <row r="2" ht="15" spans="1:17">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -4422,12 +4395,12 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="41"/>
-      <c r="O2" s="65"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="45"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="8"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -4442,12 +4415,12 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="41"/>
-      <c r="O3" s="65"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" ht="16.5" spans="1:17">
-      <c r="A4" s="45"/>
+    <row r="4" ht="15" spans="1:17">
+      <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
@@ -4462,12 +4435,12 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="65"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="45"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9">
         <v>20</v>
@@ -4484,12 +4457,12 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="41"/>
-      <c r="O5" s="65"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="45"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -4504,12 +4477,12 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="41"/>
-      <c r="O6" s="65"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
-      <c r="A7" s="45"/>
+    <row r="7" ht="15" spans="1:17">
+      <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
@@ -4523,16 +4496,16 @@
         <v>46.2134971139671</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="61"/>
       <c r="M7" s="1"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="65"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="45"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9">
         <v>50</v>
@@ -4548,16 +4521,16 @@
         <v>44.4320034834691</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="61"/>
       <c r="M8" s="1"/>
       <c r="N8" s="41"/>
-      <c r="O8" s="65"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="45"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
@@ -4571,16 +4544,16 @@
         <v>44.8410385184521</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="61"/>
       <c r="M9" s="1"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="65"/>
+      <c r="O9" s="62"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" ht="16.5" spans="1:17">
-      <c r="A10" s="45"/>
+    <row r="10" ht="15" spans="1:17">
+      <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
@@ -4593,17 +4566,17 @@
         <f t="shared" si="0"/>
         <v>44.9664550245517</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="M10" s="1"/>
       <c r="N10" s="41"/>
-      <c r="O10" s="65"/>
+      <c r="O10" s="62"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:15">
-      <c r="A11" s="45"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -4616,18 +4589,18 @@
       <c r="E11" s="36">
         <v>16.1799</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="53">
         <f t="shared" si="0"/>
         <v>61.8050791414038</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
       <c r="N11" s="41"/>
-      <c r="O11" s="65"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:15">
-      <c r="A12" s="45"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
@@ -4640,14 +4613,14 @@
         <f t="shared" si="0"/>
         <v>62.8081524981943</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
       <c r="N12" s="41"/>
-      <c r="O12" s="65"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A13" s="45"/>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12">
@@ -4656,15 +4629,15 @@
       <c r="E13" s="34">
         <v>16.0606</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="58">
         <f t="shared" si="0"/>
         <v>62.2641744393111</v>
       </c>
       <c r="N13" s="41"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:15">
-      <c r="A14" s="45"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
         <v>20</v>
@@ -4675,15 +4648,15 @@
       <c r="E14" s="31">
         <v>16.1996</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="53">
         <f t="shared" si="0"/>
         <v>61.7299192572656</v>
       </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="65"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:15">
-      <c r="A15" s="45"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
@@ -4692,15 +4665,15 @@
       <c r="E15" s="33">
         <v>16.2081</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="59">
         <f t="shared" si="0"/>
         <v>61.6975462885841</v>
       </c>
       <c r="N15" s="41"/>
-      <c r="O15" s="67"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A16" s="45"/>
+      <c r="O15" s="64"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12">
@@ -4709,15 +4682,15 @@
       <c r="E16" s="34">
         <v>16.1827</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="60">
         <f t="shared" si="0"/>
         <v>61.794385362146</v>
       </c>
       <c r="N16" s="41"/>
-      <c r="O16" s="67"/>
+      <c r="O16" s="64"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:15">
-      <c r="A17" s="45"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9">
         <v>50</v>
@@ -4733,10 +4706,10 @@
         <v>54.6624321502561</v>
       </c>
       <c r="N17" s="41"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:15">
-      <c r="A18" s="45"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -4750,10 +4723,10 @@
         <v>55.2196361025981</v>
       </c>
       <c r="N18" s="41"/>
-      <c r="O18" s="65"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A19" s="45"/>
+      <c r="O18" s="62"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12">
@@ -4767,10 +4740,10 @@
         <v>54.7993248723176</v>
       </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="65"/>
+      <c r="O19" s="62"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:15">
-      <c r="A20" s="45"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -4788,10 +4761,10 @@
         <v>28.3556823369619</v>
       </c>
       <c r="N20" s="41"/>
-      <c r="O20" s="65"/>
+      <c r="O20" s="62"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:15">
-      <c r="A21" s="45"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -4805,10 +4778,10 @@
         <v>27.5259156495841</v>
       </c>
       <c r="N21" s="41"/>
-      <c r="O21" s="65"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A22" s="45"/>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12">
@@ -4822,10 +4795,10 @@
         <v>27.5564079671087</v>
       </c>
       <c r="N22" s="41"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:15">
-      <c r="A23" s="45"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9">
         <v>20</v>
@@ -4841,10 +4814,10 @@
         <v>27.5443395005109</v>
       </c>
       <c r="N23" s="41"/>
-      <c r="O23" s="65"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:15">
-      <c r="A24" s="45"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
@@ -4857,11 +4830,14 @@
         <f t="shared" si="0"/>
         <v>28.2324775128317</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N24" s="41"/>
-      <c r="O24" s="65"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A25" s="45"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12">
@@ -4875,10 +4851,10 @@
         <v>27.9846308407423</v>
       </c>
       <c r="N25" s="41"/>
-      <c r="O25" s="65"/>
+      <c r="O25" s="62"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:15">
-      <c r="A26" s="45"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9">
         <v>50</v>
@@ -4894,10 +4870,10 @@
         <v>28.4131268646114</v>
       </c>
       <c r="N26" s="41"/>
-      <c r="O26" s="65"/>
+      <c r="O26" s="62"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:15">
-      <c r="A27" s="45"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -4911,10 +4887,10 @@
         <v>28.7231689697861</v>
       </c>
       <c r="N27" s="41"/>
-      <c r="O27" s="65"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:15">
-      <c r="A28" s="45"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13">
@@ -4928,68 +4904,68 @@
         <v>28.4269385040039</v>
       </c>
       <c r="N28" s="41"/>
-      <c r="O28" s="65"/>
+      <c r="O28" s="62"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="57">
+      <c r="A29" s="10"/>
+      <c r="B29" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="54">
         <v>35.9958</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="54">
         <f t="shared" si="0"/>
         <v>27.7810188966491</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A31" s="45"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="57" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="54" t="s">
         <v>42</v>
       </c>
+      <c r="F32" s="54" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A34" s="55"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="27"/>
@@ -5166,23 +5142,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.72" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.4266666666667"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.71666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5199,12 +5175,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="44" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -5224,7 +5200,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="8"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -5238,8 +5214,8 @@
         <v>43.9701530601028</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="45"/>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
@@ -5254,7 +5230,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9">
         <v>20</v>
@@ -5265,13 +5241,13 @@
       <c r="E5" s="31">
         <v>49.9854</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="53">
         <f t="shared" si="0"/>
         <v>20.0058417057781</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -5285,8 +5261,8 @@
         <v>19.8744333302197</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="45"/>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
@@ -5301,7 +5277,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9">
         <v>50</v>
@@ -5312,13 +5288,13 @@
       <c r="E8" s="31">
         <v>50.0125</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="53">
         <f t="shared" si="0"/>
         <v>19.9950012496876</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
@@ -5332,8 +5308,8 @@
         <v>20.0936363453694</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="45"/>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13">
@@ -5348,7 +5324,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="45"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -5367,7 +5343,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="45"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="8"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
@@ -5381,8 +5357,8 @@
         <v>57.9478353586102</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A13" s="45"/>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12">
@@ -5397,7 +5373,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="45"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
         <v>20</v>
@@ -5414,7 +5390,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="45"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="8"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
@@ -5428,8 +5404,8 @@
         <v>19.8619593822931</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A16" s="45"/>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12">
@@ -5444,7 +5420,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="45"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9">
         <v>50</v>
@@ -5455,13 +5431,13 @@
       <c r="E17" s="31">
         <v>50.2688</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
         <v>19.8930549366605</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="45"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -5475,8 +5451,8 @@
         <v>19.7019101001842</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A19" s="45"/>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12">
@@ -5491,7 +5467,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="45"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -5510,7 +5486,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="45"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -5524,8 +5500,8 @@
         <v>19.8531265696378</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A22" s="45"/>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12">
@@ -5540,7 +5516,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="45"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9">
         <v>20</v>
@@ -5551,13 +5527,13 @@
       <c r="E23" s="31">
         <v>49.6675</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="53">
         <f t="shared" si="0"/>
         <v>20.1338903709669</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="45"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
@@ -5571,8 +5547,8 @@
         <v>20.0708903848393</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A25" s="45"/>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12">
@@ -5587,7 +5563,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="45"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9">
         <v>50</v>
@@ -5598,13 +5574,13 @@
       <c r="E26" s="31">
         <v>49.6816</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>20.1281762262085</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="45"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -5618,8 +5594,8 @@
         <v>20.0143302604665</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A28" s="45"/>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13">
@@ -5633,67 +5609,70 @@
         <v>19.9993200231192</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:8">
+      <c r="A29" s="10"/>
+      <c r="B29" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="54">
+        <v>50.6088</v>
+      </c>
+      <c r="F29" s="54">
+        <f t="shared" si="0"/>
+        <v>19.7594094307709</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="57">
-        <v>50.6088</v>
-      </c>
-      <c r="F29" s="57">
-        <f t="shared" si="0"/>
-        <v>19.7594094307709</v>
-      </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A31" s="45"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="57">
+      <c r="A32" s="10"/>
+      <c r="B32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="54">
         <v>132.8497</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="54">
         <f>1000/E32</f>
         <v>7.52730341129863</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="45"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A34" s="55"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
+      <c r="A34" s="26"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
       <c r="A35" s="27"/>
@@ -5848,23 +5827,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.4266666666667"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5881,12 +5860,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -5920,7 +5899,7 @@
         <v>178.887676427971</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
@@ -5967,7 +5946,7 @@
         <v>175.669740887132</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="12"/>
@@ -6014,7 +5993,7 @@
         <v>175.845818386439</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="15" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
@@ -6063,7 +6042,7 @@
         <v>173.867686690429</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
@@ -6110,7 +6089,7 @@
         <v>177.945441927505</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
@@ -6157,7 +6136,7 @@
         <v>165.354851511343</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
@@ -6206,7 +6185,7 @@
         <v>172.268256128443</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -6253,7 +6232,7 @@
         <v>170.83504168375</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -6268,7 +6247,7 @@
         <v>167.403240926744</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9">
@@ -6283,6 +6262,9 @@
       <c r="F26" s="32">
         <f t="shared" si="0"/>
         <v>168.61131719161</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
@@ -6300,7 +6282,7 @@
         <v>171.045429666119</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A28" s="10"/>
       <c r="B28" s="16"/>
       <c r="C28" s="12"/>
@@ -6318,7 +6300,7 @@
     <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="10"/>
       <c r="B29" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
@@ -6338,7 +6320,7 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A31" s="10"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
@@ -6349,7 +6331,7 @@
     <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="10"/>
       <c r="B32" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
@@ -6369,7 +6351,7 @@
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A34" s="26"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
@@ -6530,23 +6512,23 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.85333333333333" style="2"/>
-    <col min="2" max="3" width="8.85333333333333" style="3"/>
-    <col min="4" max="4" width="8.85333333333333" style="4"/>
-    <col min="5" max="5" width="8.71333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.72" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.4266666666667"/>
+    <col min="1" max="1" width="8.85" style="2"/>
+    <col min="2" max="3" width="8.85" style="3"/>
+    <col min="4" max="4" width="8.85" style="4"/>
+    <col min="5" max="5" width="8.71666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.71666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.425"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" spans="1:6">
+    <row r="1" ht="29.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6566,9 +6548,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -6598,11 +6580,11 @@
         <v>39.4904</v>
       </c>
       <c r="F3" s="32">
-        <f t="shared" ref="F3:F28" si="0">1000/E3</f>
+        <f t="shared" ref="F3:F29" si="0">1000/E3</f>
         <v>25.3226100520633</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
@@ -6649,7 +6631,7 @@
         <v>15.0605358237435</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="15" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="8"/>
       <c r="C7" s="12"/>
@@ -6696,7 +6678,7 @@
         <v>15.3142171065931</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="15" spans="1:6">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="13"/>
@@ -6745,7 +6727,7 @@
         <v>22.4899526136698</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
@@ -6792,7 +6774,7 @@
         <v>15.2455292485479</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
@@ -6839,7 +6821,7 @@
         <v>15.1487378829033</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
@@ -6881,11 +6863,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -6893,7 +6875,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="32"/>
     </row>
@@ -6914,7 +6896,7 @@
         <v>15.1448376549128</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+    <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
@@ -6928,8 +6910,11 @@
         <f t="shared" si="0"/>
         <v>15.4197962428124</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A25" s="10"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -6976,7 +6961,7 @@
         <v>15.2294391149868</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A28" s="10"/>
       <c r="B28" s="16"/>
       <c r="C28" s="12"/>
@@ -6994,7 +6979,7 @@
     <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="10"/>
       <c r="B29" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
@@ -7002,7 +6987,7 @@
         <v>59.5621</v>
       </c>
       <c r="F29" s="38">
-        <f>1000/E29</f>
+        <f t="shared" si="0"/>
         <v>16.7891998435247</v>
       </c>
     </row>
@@ -7014,7 +6999,7 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A31" s="10"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
@@ -7025,7 +7010,7 @@
     <row r="32" s="1" customFormat="1" spans="1:6">
       <c r="A32" s="10"/>
       <c r="B32" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
@@ -7045,7 +7030,7 @@
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A34" s="26"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
